--- a/result/20_pred.xlsx
+++ b/result/20_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,314 +511,314 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>277.07155</v>
+        <v>103.07155</v>
       </c>
       <c r="B10" t="n">
-        <v>43.14240000000001</v>
+        <v>50.6424</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>277.07155</v>
+        <v>271.07155</v>
       </c>
       <c r="B11" t="n">
-        <v>58.14240000000001</v>
+        <v>50.64240000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>97.07154999999997</v>
+        <v>283.07155</v>
       </c>
       <c r="B12" t="n">
-        <v>35.6424</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>97.07154999999997</v>
+        <v>283.07155</v>
       </c>
       <c r="B13" t="n">
-        <v>58.14240000000001</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>97.07154999999997</v>
+        <v>91.07154999999997</v>
       </c>
       <c r="B14" t="n">
-        <v>73.14240000000001</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>284.57155</v>
+        <v>91.07154999999997</v>
       </c>
       <c r="B15" t="n">
-        <v>73.14240000000001</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>284.57155</v>
+        <v>283.07155</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6424</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>97.07154999999997</v>
+        <v>283.07155</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6424</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>284.57155</v>
+        <v>91.07154999999997</v>
       </c>
       <c r="B18" t="n">
-        <v>88.14240000000001</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>284.57155</v>
+        <v>91.07154999999997</v>
       </c>
       <c r="B19" t="n">
-        <v>110.6424</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>284.57155</v>
+        <v>103.07155</v>
       </c>
       <c r="B20" t="n">
-        <v>-9.357599999999998</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>284.57155</v>
+        <v>103.07155</v>
       </c>
       <c r="B21" t="n">
-        <v>5.642400000000002</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>97.07154999999997</v>
+        <v>271.07155</v>
       </c>
       <c r="B22" t="n">
-        <v>88.14240000000001</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>97.07154999999997</v>
+        <v>271.07155</v>
       </c>
       <c r="B23" t="n">
-        <v>110.6424</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>97.07154999999997</v>
+        <v>115.07155</v>
       </c>
       <c r="B24" t="n">
-        <v>-9.357599999999998</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>97.07154999999997</v>
+        <v>295.07155</v>
       </c>
       <c r="B25" t="n">
-        <v>5.642400000000002</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112.07155</v>
+        <v>295.07155</v>
       </c>
       <c r="B26" t="n">
-        <v>50.6424</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>262.07155</v>
+        <v>295.07155</v>
       </c>
       <c r="B27" t="n">
-        <v>50.6424</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>269.57155</v>
+        <v>115.07155</v>
       </c>
       <c r="B28" t="n">
-        <v>28.14240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>269.57155</v>
+        <v>259.07155</v>
       </c>
       <c r="B29" t="n">
-        <v>73.14240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>82.07154999999997</v>
+        <v>295.07155</v>
       </c>
       <c r="B30" t="n">
-        <v>73.14240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>82.07154999999997</v>
+        <v>79.07154999999997</v>
       </c>
       <c r="B31" t="n">
-        <v>20.6424</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>292.07155</v>
+        <v>259.07155</v>
       </c>
       <c r="B32" t="n">
-        <v>35.6424</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112.07155</v>
+        <v>79.07154999999997</v>
       </c>
       <c r="B33" t="n">
-        <v>35.64240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>292.07155</v>
+        <v>79.07154999999997</v>
       </c>
       <c r="B34" t="n">
-        <v>58.14240000000001</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112.07155</v>
+        <v>79.07154999999997</v>
       </c>
       <c r="B35" t="n">
-        <v>65.64240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>82.07154999999997</v>
+        <v>127.07155</v>
       </c>
       <c r="B36" t="n">
-        <v>35.6424</v>
+        <v>50.64240000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>82.07154999999997</v>
+        <v>247.07155</v>
       </c>
       <c r="B37" t="n">
-        <v>88.14240000000001</v>
+        <v>50.64240000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>269.57155</v>
+        <v>307.07155</v>
       </c>
       <c r="B38" t="n">
-        <v>13.1424</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>82.07154999999997</v>
+        <v>115.07155</v>
       </c>
       <c r="B39" t="n">
-        <v>110.6424</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>82.07154999999997</v>
+        <v>115.07155</v>
       </c>
       <c r="B40" t="n">
-        <v>58.14240000000001</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>82.07154999999997</v>
+        <v>307.07155</v>
       </c>
       <c r="B41" t="n">
-        <v>-9.357599999999998</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>269.57155</v>
+        <v>67.07154999999997</v>
       </c>
       <c r="B42" t="n">
-        <v>88.14240000000001</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>82.07154999999997</v>
+        <v>259.07155</v>
       </c>
       <c r="B43" t="n">
-        <v>5.642400000000002</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>269.57155</v>
+        <v>259.07155</v>
       </c>
       <c r="B44" t="n">
-        <v>110.6424</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>269.57155</v>
+        <v>67.07154999999997</v>
       </c>
       <c r="B45" t="n">
-        <v>-9.357599999999998</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>299.57155</v>
+        <v>307.07155</v>
       </c>
       <c r="B46" t="n">
-        <v>73.14240000000001</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>299.57155</v>
+        <v>307.07155</v>
       </c>
       <c r="B47" t="n">
-        <v>20.6424</v>
+        <v>50.6424</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112.07155</v>
+        <v>307.07155</v>
       </c>
       <c r="B48" t="n">
-        <v>20.6424</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="49">
@@ -826,1287 +826,671 @@
         <v>127.07155</v>
       </c>
       <c r="B49" t="n">
-        <v>50.6424</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112.07155</v>
+        <v>67.07154999999997</v>
       </c>
       <c r="B50" t="n">
-        <v>80.64240000000001</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>299.57155</v>
+        <v>67.07154999999997</v>
       </c>
       <c r="B51" t="n">
-        <v>88.14240000000001</v>
+        <v>50.6424</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>299.57155</v>
+        <v>67.07154999999997</v>
       </c>
       <c r="B52" t="n">
-        <v>110.6424</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>247.07155</v>
+        <v>127.07155</v>
       </c>
       <c r="B53" t="n">
-        <v>50.64240000000001</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>299.57155</v>
+        <v>247.07155</v>
       </c>
       <c r="B54" t="n">
-        <v>-9.357599999999998</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>299.57155</v>
+        <v>247.07155</v>
       </c>
       <c r="B55" t="n">
-        <v>5.642400000000002</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112.07155</v>
+        <v>139.07155</v>
       </c>
       <c r="B56" t="n">
-        <v>110.6424</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>254.57155</v>
+        <v>235.07155</v>
       </c>
       <c r="B57" t="n">
-        <v>35.64240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112.07155</v>
+        <v>151.07155</v>
       </c>
       <c r="B58" t="n">
-        <v>-9.357599999999998</v>
+        <v>50.64240000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112.07155</v>
+        <v>139.07155</v>
       </c>
       <c r="B59" t="n">
-        <v>5.642400000000002</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112.07155</v>
+        <v>223.07155</v>
       </c>
       <c r="B60" t="n">
-        <v>95.64240000000001</v>
+        <v>50.6424</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>254.57155</v>
+        <v>235.07155</v>
       </c>
       <c r="B61" t="n">
-        <v>65.64240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>127.07155</v>
+        <v>319.07155</v>
       </c>
       <c r="B62" t="n">
-        <v>35.6424</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67.07154999999997</v>
+        <v>319.07155</v>
       </c>
       <c r="B63" t="n">
-        <v>73.14240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>67.07154999999997</v>
+        <v>319.07155</v>
       </c>
       <c r="B64" t="n">
-        <v>20.6424</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>307.07155</v>
+        <v>319.07155</v>
       </c>
       <c r="B65" t="n">
-        <v>35.6424</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>254.57155</v>
+        <v>55.07154999999997</v>
       </c>
       <c r="B66" t="n">
-        <v>20.6424</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>127.07155</v>
+        <v>55.07154999999997</v>
       </c>
       <c r="B67" t="n">
-        <v>65.64240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>307.07155</v>
+        <v>55.07154999999997</v>
       </c>
       <c r="B68" t="n">
-        <v>58.14240000000001</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>254.57155</v>
+        <v>55.07154999999997</v>
       </c>
       <c r="B69" t="n">
-        <v>80.64240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>67.07154999999997</v>
+        <v>139.07155</v>
       </c>
       <c r="B70" t="n">
-        <v>35.6424</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>67.07154999999997</v>
+        <v>331.07155</v>
       </c>
       <c r="B71" t="n">
-        <v>88.14240000000001</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>67.07154999999997</v>
+        <v>175.07155</v>
       </c>
       <c r="B72" t="n">
-        <v>110.6424</v>
+        <v>50.64240000000001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>67.07154999999997</v>
+        <v>139.07155</v>
       </c>
       <c r="B73" t="n">
-        <v>58.14240000000001</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>67.07154999999997</v>
+        <v>199.07155</v>
       </c>
       <c r="B74" t="n">
-        <v>-9.357599999999998</v>
+        <v>50.64240000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>67.07154999999997</v>
+        <v>331.07155</v>
       </c>
       <c r="B75" t="n">
-        <v>5.642400000000002</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>142.07155</v>
+        <v>43.07154999999997</v>
       </c>
       <c r="B76" t="n">
-        <v>50.6424</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>254.57155</v>
+        <v>235.07155</v>
       </c>
       <c r="B77" t="n">
-        <v>110.6424</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>254.57155</v>
+        <v>235.07155</v>
       </c>
       <c r="B78" t="n">
-        <v>-9.357599999999998</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>254.57155</v>
+        <v>43.07154999999997</v>
       </c>
       <c r="B79" t="n">
-        <v>5.642400000000002</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>254.57155</v>
+        <v>163.07155</v>
       </c>
       <c r="B80" t="n">
-        <v>95.64240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>232.07155</v>
+        <v>151.07155</v>
       </c>
       <c r="B81" t="n">
-        <v>50.64240000000001</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>314.57155</v>
+        <v>211.07155</v>
       </c>
       <c r="B82" t="n">
-        <v>73.14240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>314.57155</v>
+        <v>331.07155</v>
       </c>
       <c r="B83" t="n">
-        <v>20.6424</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>127.07155</v>
+        <v>223.07155</v>
       </c>
       <c r="B84" t="n">
-        <v>20.6424</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>127.07155</v>
+        <v>331.07155</v>
       </c>
       <c r="B85" t="n">
-        <v>80.64240000000001</v>
+        <v>50.6424</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>239.57155</v>
+        <v>331.07155</v>
       </c>
       <c r="B86" t="n">
-        <v>35.64240000000001</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>314.57155</v>
+        <v>163.07155</v>
       </c>
       <c r="B87" t="n">
-        <v>88.14240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>314.57155</v>
+        <v>151.07155</v>
       </c>
       <c r="B88" t="n">
-        <v>110.6424</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>239.57155</v>
+        <v>211.07155</v>
       </c>
       <c r="B89" t="n">
-        <v>65.64240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>314.57155</v>
+        <v>43.07154999999997</v>
       </c>
       <c r="B90" t="n">
-        <v>-9.357599999999998</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>314.57155</v>
+        <v>223.07155</v>
       </c>
       <c r="B91" t="n">
-        <v>5.642400000000002</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>127.07155</v>
+        <v>43.07154999999997</v>
       </c>
       <c r="B92" t="n">
-        <v>110.6424</v>
+        <v>50.6424</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>127.07155</v>
+        <v>43.07154999999997</v>
       </c>
       <c r="B93" t="n">
-        <v>-9.357599999999998</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>127.07155</v>
+        <v>187.07155</v>
       </c>
       <c r="B94" t="n">
-        <v>5.642400000000002</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>127.07155</v>
+        <v>187.07155</v>
       </c>
       <c r="B95" t="n">
-        <v>95.64240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>142.07155</v>
+        <v>151.07155</v>
       </c>
       <c r="B96" t="n">
-        <v>35.64240000000001</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>157.07155</v>
+        <v>151.07155</v>
       </c>
       <c r="B97" t="n">
-        <v>50.6424</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>142.07155</v>
+        <v>343.07155</v>
       </c>
       <c r="B98" t="n">
-        <v>65.64240000000001</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>52.07154999999997</v>
+        <v>343.07155</v>
       </c>
       <c r="B99" t="n">
-        <v>73.14240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>217.07155</v>
+        <v>343.07155</v>
       </c>
       <c r="B100" t="n">
-        <v>50.6424</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>52.07154999999997</v>
+        <v>223.07155</v>
       </c>
       <c r="B101" t="n">
-        <v>20.6424</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>239.57155</v>
+        <v>31.07154999999997</v>
       </c>
       <c r="B102" t="n">
-        <v>20.6424</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>322.07155</v>
+        <v>223.07155</v>
       </c>
       <c r="B103" t="n">
-        <v>35.6424</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>239.57155</v>
+        <v>343.07155</v>
       </c>
       <c r="B104" t="n">
-        <v>80.64240000000001</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>322.07155</v>
+        <v>31.07154999999997</v>
       </c>
       <c r="B105" t="n">
-        <v>58.14240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>52.07154999999997</v>
+        <v>31.07154999999997</v>
       </c>
       <c r="B106" t="n">
-        <v>35.6424</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>52.07154999999997</v>
+        <v>355.07155</v>
       </c>
       <c r="B107" t="n">
-        <v>88.14240000000001</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>52.07154999999997</v>
+        <v>31.07154999999997</v>
       </c>
       <c r="B108" t="n">
-        <v>110.6424</v>
+        <v>38.64240000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>52.07154999999997</v>
+        <v>19.07154999999997</v>
       </c>
       <c r="B109" t="n">
-        <v>58.14240000000001</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>239.57155</v>
+        <v>175.07155</v>
       </c>
       <c r="B110" t="n">
-        <v>110.6424</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>52.07154999999997</v>
+        <v>355.07155</v>
       </c>
       <c r="B111" t="n">
-        <v>-9.357599999999998</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>52.07154999999997</v>
+        <v>199.07155</v>
       </c>
       <c r="B112" t="n">
-        <v>5.642400000000002</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>224.57155</v>
+        <v>163.07155</v>
       </c>
       <c r="B113" t="n">
-        <v>35.64240000000001</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>329.57155</v>
+        <v>19.07154999999997</v>
       </c>
       <c r="B114" t="n">
-        <v>73.14240000000001</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>239.57155</v>
+        <v>175.07155</v>
       </c>
       <c r="B115" t="n">
-        <v>-9.357599999999998</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>239.57155</v>
+        <v>211.07155</v>
       </c>
       <c r="B116" t="n">
-        <v>5.642400000000002</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>172.07155</v>
+        <v>163.07155</v>
       </c>
       <c r="B117" t="n">
-        <v>50.6424</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>239.57155</v>
+        <v>199.07155</v>
       </c>
       <c r="B118" t="n">
-        <v>95.64240000000001</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>329.57155</v>
+        <v>211.07155</v>
       </c>
       <c r="B119" t="n">
-        <v>20.6424</v>
+        <v>86.64240000000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>202.07155</v>
+        <v>-4.928450000000026</v>
       </c>
       <c r="B120" t="n">
-        <v>50.6424</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>142.07155</v>
+        <v>379.07155</v>
       </c>
       <c r="B121" t="n">
-        <v>20.6424</v>
+        <v>74.64240000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>224.57155</v>
+        <v>-4.928450000000026</v>
       </c>
       <c r="B122" t="n">
-        <v>65.64240000000001</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>142.07155</v>
+        <v>379.07155</v>
       </c>
       <c r="B123" t="n">
-        <v>80.64240000000001</v>
+        <v>26.6424</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>187.07155</v>
+        <v>355.07155</v>
       </c>
       <c r="B124" t="n">
-        <v>50.6424</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>157.07155</v>
+        <v>355.07155</v>
       </c>
       <c r="B125" t="n">
-        <v>35.64240000000001</v>
+        <v>50.64240000000001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>329.57155</v>
+        <v>355.07155</v>
       </c>
       <c r="B126" t="n">
-        <v>88.14240000000001</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>329.57155</v>
+        <v>19.07154999999997</v>
       </c>
       <c r="B127" t="n">
-        <v>110.6424</v>
+        <v>2.642400000000002</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>142.07155</v>
+        <v>19.07154999999997</v>
       </c>
       <c r="B128" t="n">
-        <v>110.6424</v>
+        <v>50.6424</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>329.57155</v>
+        <v>19.07154999999997</v>
       </c>
       <c r="B129" t="n">
-        <v>-9.357599999999998</v>
+        <v>98.64240000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>329.57155</v>
+        <v>187.07155</v>
       </c>
       <c r="B130" t="n">
-        <v>5.642400000000002</v>
+        <v>14.6424</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>142.07155</v>
+        <v>367.07155</v>
       </c>
       <c r="B131" t="n">
-        <v>-9.357599999999998</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>142.07155</v>
+        <v>7.071549999999974</v>
       </c>
       <c r="B132" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>157.07155</v>
-      </c>
-      <c r="B133" t="n">
-        <v>65.64240000000001</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>142.07155</v>
-      </c>
-      <c r="B134" t="n">
-        <v>95.64240000000001</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B135" t="n">
-        <v>73.14240000000001</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B136" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B137" t="n">
-        <v>35.64240000000001</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>224.57155</v>
-      </c>
-      <c r="B138" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>224.57155</v>
-      </c>
-      <c r="B139" t="n">
-        <v>80.64240000000001</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>337.07155</v>
-      </c>
-      <c r="B140" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B141" t="n">
-        <v>35.64240000000001</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B142" t="n">
-        <v>65.64240000000001</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>337.07155</v>
-      </c>
-      <c r="B143" t="n">
-        <v>58.14240000000001</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>344.57155</v>
-      </c>
-      <c r="B144" t="n">
-        <v>73.14240000000001</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B145" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B146" t="n">
-        <v>88.14240000000001</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>344.57155</v>
-      </c>
-      <c r="B147" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B148" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>157.07155</v>
-      </c>
-      <c r="B149" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B150" t="n">
-        <v>58.14240000000001</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>224.57155</v>
-      </c>
-      <c r="B151" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>194.57155</v>
-      </c>
-      <c r="B152" t="n">
-        <v>35.64240000000001</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B153" t="n">
-        <v>65.64240000000001</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>37.07154999999997</v>
-      </c>
-      <c r="B155" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>224.57155</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>224.57155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>224.57155</v>
-      </c>
-      <c r="B158" t="n">
-        <v>95.64240000000001</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>157.07155</v>
-      </c>
-      <c r="B159" t="n">
-        <v>80.64240000000001</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>194.57155</v>
-      </c>
-      <c r="B160" t="n">
-        <v>65.64240000000001</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>344.57155</v>
-      </c>
-      <c r="B161" t="n">
-        <v>88.14240000000001</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>344.57155</v>
-      </c>
-      <c r="B162" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>157.07155</v>
-      </c>
-      <c r="B163" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B164" t="n">
-        <v>73.14240000000001</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>344.57155</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>344.57155</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>157.07155</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>157.07155</v>
-      </c>
-      <c r="B168" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B169" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>157.07155</v>
-      </c>
-      <c r="B170" t="n">
-        <v>95.64240000000001</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B171" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>359.57155</v>
-      </c>
-      <c r="B172" t="n">
-        <v>73.14240000000001</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B173" t="n">
-        <v>80.64240000000001</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>359.57155</v>
-      </c>
-      <c r="B174" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B175" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>352.07155</v>
-      </c>
-      <c r="B176" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B177" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>352.07155</v>
-      </c>
-      <c r="B178" t="n">
-        <v>58.14240000000001</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>-7.928450000000026</v>
-      </c>
-      <c r="B179" t="n">
-        <v>73.14240000000001</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B180" t="n">
-        <v>80.64240000000001</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>7.071549999999974</v>
-      </c>
-      <c r="B181" t="n">
-        <v>73.14240000000001</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B182" t="n">
-        <v>88.14240000000001</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>382.07155</v>
-      </c>
-      <c r="B183" t="n">
-        <v>73.14240000000001</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B184" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B185" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B186" t="n">
-        <v>58.14240000000001</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>-7.928450000000026</v>
-      </c>
-      <c r="B187" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>7.071549999999974</v>
-      </c>
-      <c r="B188" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>194.57155</v>
-      </c>
-      <c r="B189" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>22.07154999999997</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>382.07155</v>
-      </c>
-      <c r="B192" t="n">
-        <v>20.6424</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>209.57155</v>
-      </c>
-      <c r="B195" t="n">
-        <v>95.64240000000001</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>194.57155</v>
-      </c>
-      <c r="B196" t="n">
-        <v>80.64240000000001</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>359.57155</v>
-      </c>
-      <c r="B197" t="n">
-        <v>88.14240000000001</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>359.57155</v>
-      </c>
-      <c r="B198" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B199" t="n">
-        <v>110.6424</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>359.57155</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>359.57155</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-9.357599999999998</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.642400000000002</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>172.07155</v>
-      </c>
-      <c r="B204" t="n">
-        <v>95.64240000000001</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>367.07155</v>
-      </c>
-      <c r="B205" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>-7.928450000000026</v>
-      </c>
-      <c r="B206" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>7.071549999999974</v>
-      </c>
-      <c r="B207" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>382.07155</v>
-      </c>
-      <c r="B208" t="n">
-        <v>35.6424</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>-7.928450000000026</v>
-      </c>
-      <c r="B209" t="n">
-        <v>88.14240000000001</v>
+        <v>62.64240000000001</v>
       </c>
     </row>
   </sheetData>
